--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H2">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J2">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N2">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P2">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q2">
-        <v>0.08632960931233336</v>
+        <v>0.029594374616</v>
       </c>
       <c r="R2">
-        <v>0.7769664838110002</v>
+        <v>0.266349371544</v>
       </c>
       <c r="S2">
-        <v>3.216343643860001E-05</v>
+        <v>1.037331564083333E-05</v>
       </c>
       <c r="T2">
-        <v>3.216343643860001E-05</v>
+        <v>1.037331564083333E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H3">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I3">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J3">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.316709</v>
       </c>
       <c r="O3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P3">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q3">
-        <v>1.408840327495223</v>
+        <v>0.3926439943973334</v>
       </c>
       <c r="R3">
-        <v>12.679562947457</v>
+        <v>3.533795949576</v>
       </c>
       <c r="S3">
-        <v>0.0005248853398790422</v>
+        <v>0.0001376281858025505</v>
       </c>
       <c r="T3">
-        <v>0.0005248853398790421</v>
+        <v>0.0001376281858025506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H4">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I4">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J4">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N4">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O4">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P4">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q4">
-        <v>7.657912766942668</v>
+        <v>0.09111387766133335</v>
       </c>
       <c r="R4">
-        <v>68.92121490248401</v>
+        <v>0.820024898952</v>
       </c>
       <c r="S4">
-        <v>0.002853074310122195</v>
+        <v>3.193691451517591E-05</v>
       </c>
       <c r="T4">
-        <v>0.002853074310122195</v>
+        <v>3.193691451517591E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>13.34512433333334</v>
+        <v>3.719288</v>
       </c>
       <c r="H5">
-        <v>40.03537300000001</v>
+        <v>11.157864</v>
       </c>
       <c r="I5">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="J5">
-        <v>0.1597931014925399</v>
+        <v>0.04235839908674209</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N5">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O5">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P5">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q5">
-        <v>419.7462374603564</v>
+        <v>120.332322763208</v>
       </c>
       <c r="R5">
-        <v>3777.716137143208</v>
+        <v>1082.990904868872</v>
       </c>
       <c r="S5">
-        <v>0.1563829784061001</v>
+        <v>0.04217846067078353</v>
       </c>
       <c r="T5">
-        <v>0.1563829784061</v>
+        <v>0.04217846067078353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>78.478283</v>
       </c>
       <c r="I6">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J6">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N6">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P6">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q6">
-        <v>0.1692253375756667</v>
+        <v>0.2081505659436667</v>
       </c>
       <c r="R6">
-        <v>1.523028038181</v>
+        <v>1.873355093493</v>
       </c>
       <c r="S6">
-        <v>6.304752717255722E-05</v>
+        <v>7.296020103038043E-05</v>
       </c>
       <c r="T6">
-        <v>6.304752717255722E-05</v>
+        <v>7.296020103038043E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>78.478283</v>
       </c>
       <c r="I7">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J7">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.316709</v>
       </c>
       <c r="O7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P7">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q7">
         <v>2.761642058960778</v>
@@ -883,10 +883,10 @@
         <v>24.854778530647</v>
       </c>
       <c r="S7">
-        <v>0.001028892630663854</v>
+        <v>0.0009680010183122096</v>
       </c>
       <c r="T7">
-        <v>0.001028892630663854</v>
+        <v>0.0009680010183122097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>78.478283</v>
       </c>
       <c r="I8">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J8">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N8">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O8">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P8">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q8">
-        <v>15.01122133452933</v>
+        <v>0.6408449391687778</v>
       </c>
       <c r="R8">
-        <v>135.100992010764</v>
+        <v>5.767604452519</v>
       </c>
       <c r="S8">
-        <v>0.005592663596010442</v>
+        <v>0.0002246267041316137</v>
       </c>
       <c r="T8">
-        <v>0.00559266359601044</v>
+        <v>0.0002246267041316137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>78.478283</v>
       </c>
       <c r="I9">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="J9">
-        <v>0.3132302087051684</v>
+        <v>0.2979256989470644</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N9">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O9">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P9">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q9">
-        <v>822.7964807920997</v>
+        <v>846.3514235214178</v>
       </c>
       <c r="R9">
-        <v>7405.168327128898</v>
+        <v>7617.16281169276</v>
       </c>
       <c r="S9">
-        <v>0.3065456049513216</v>
+        <v>0.2966601110235902</v>
       </c>
       <c r="T9">
-        <v>0.3065456049513215</v>
+        <v>0.2966601110235902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H10">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I10">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J10">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N10">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P10">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q10">
-        <v>0.02363825430166666</v>
+        <v>0.05012616121466667</v>
       </c>
       <c r="R10">
-        <v>0.212744288715</v>
+        <v>0.451135450932</v>
       </c>
       <c r="S10">
-        <v>8.806798684799581E-06</v>
+        <v>1.757004494570107E-05</v>
       </c>
       <c r="T10">
-        <v>8.806798684799581E-06</v>
+        <v>1.757004494570107E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H11">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I11">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J11">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.316709</v>
       </c>
       <c r="O11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P11">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q11">
-        <v>0.3857601835227778</v>
+        <v>0.6650499096031112</v>
       </c>
       <c r="R11">
-        <v>3.471841651705</v>
+        <v>5.985449186428</v>
       </c>
       <c r="S11">
-        <v>0.0001437209462907297</v>
+        <v>0.0002331109448581141</v>
       </c>
       <c r="T11">
-        <v>0.0001437209462907297</v>
+        <v>0.0002331109448581141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H12">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I12">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J12">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N12">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O12">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P12">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q12">
-        <v>2.096843607273333</v>
+        <v>0.1543262521951111</v>
       </c>
       <c r="R12">
-        <v>18.87159246546</v>
+        <v>1.388936269756</v>
       </c>
       <c r="S12">
-        <v>0.0007812116447813655</v>
+        <v>5.409389272315399E-05</v>
       </c>
       <c r="T12">
-        <v>0.0007812116447813653</v>
+        <v>5.409389272315399E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.654081666666666</v>
+        <v>6.299630666666666</v>
       </c>
       <c r="H13">
-        <v>10.962245</v>
+        <v>18.898892</v>
       </c>
       <c r="I13">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="J13">
-        <v>0.0437535858070084</v>
+        <v>0.07174552491706633</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N13">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O13">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P13">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q13">
-        <v>114.9323897361617</v>
+        <v>203.8156740403907</v>
       </c>
       <c r="R13">
-        <v>1034.391507625455</v>
+        <v>1834.341066363516</v>
       </c>
       <c r="S13">
-        <v>0.04281984641725151</v>
+        <v>0.07144075003453935</v>
       </c>
       <c r="T13">
-        <v>0.04281984641725151</v>
+        <v>0.07144075003453935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H14">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I14">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J14">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.006469</v>
+        <v>0.007957000000000001</v>
       </c>
       <c r="N14">
-        <v>0.019407</v>
+        <v>0.023871</v>
       </c>
       <c r="O14">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="P14">
-        <v>0.0002012817583373685</v>
+        <v>0.0002448939493579708</v>
       </c>
       <c r="Q14">
-        <v>0.261065473972</v>
+        <v>0.4107949303246667</v>
       </c>
       <c r="R14">
-        <v>2.349589265748</v>
+        <v>3.697154372922</v>
       </c>
       <c r="S14">
-        <v>9.726399604141167E-05</v>
+        <v>0.0001439903877410559</v>
       </c>
       <c r="T14">
-        <v>9.72639960414117E-05</v>
+        <v>0.0001439903877410559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H15">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I15">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J15">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.316709</v>
       </c>
       <c r="O15">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578298</v>
       </c>
       <c r="P15">
-        <v>0.00328478097600194</v>
+        <v>0.003249135679578299</v>
       </c>
       <c r="Q15">
-        <v>4.260410429030667</v>
+        <v>5.450230471626445</v>
       </c>
       <c r="R15">
-        <v>38.34369386127601</v>
+        <v>49.05207424463801</v>
       </c>
       <c r="S15">
-        <v>0.001587282059168313</v>
+        <v>0.001910395530605424</v>
       </c>
       <c r="T15">
-        <v>0.001587282059168313</v>
+        <v>0.001910395530605425</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H16">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I16">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J16">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.573836</v>
+        <v>0.02449766666666667</v>
       </c>
       <c r="N16">
-        <v>1.721508</v>
+        <v>0.073493</v>
       </c>
       <c r="O16">
-        <v>0.01785480276353103</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="P16">
-        <v>0.01785480276353102</v>
+        <v>0.0007539688752111494</v>
       </c>
       <c r="Q16">
-        <v>23.157948264368</v>
+        <v>1.264737623658444</v>
       </c>
       <c r="R16">
-        <v>208.421534379312</v>
+        <v>11.382638612926</v>
       </c>
       <c r="S16">
-        <v>0.008627853212617023</v>
+        <v>0.0004433113638412059</v>
       </c>
       <c r="T16">
-        <v>0.008627853212617023</v>
+        <v>0.0004433113638412059</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>40.356388</v>
+        <v>51.62686066666667</v>
       </c>
       <c r="H17">
-        <v>121.069164</v>
+        <v>154.880582</v>
       </c>
       <c r="I17">
-        <v>0.4832231039952832</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="J17">
-        <v>0.4832231039952833</v>
+        <v>0.5879703770491272</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.453153</v>
+        <v>32.353591</v>
       </c>
       <c r="N17">
-        <v>94.359459</v>
+        <v>97.060773</v>
       </c>
       <c r="O17">
-        <v>0.9786591345021298</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="P17">
-        <v>0.9786591345021296</v>
+        <v>0.9957520014958525</v>
       </c>
       <c r="Q17">
-        <v>1269.335646291364</v>
+        <v>1670.314334623321</v>
       </c>
       <c r="R17">
-        <v>11424.02081662228</v>
+        <v>15032.82901160989</v>
       </c>
       <c r="S17">
-        <v>0.4729107047274565</v>
+        <v>0.5854726797669395</v>
       </c>
       <c r="T17">
-        <v>0.4729107047274565</v>
+        <v>0.5854726797669395</v>
       </c>
     </row>
   </sheetData>
